--- a/COPD.xlsx
+++ b/COPD.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimmy\Documents\Tài liệu\vital docs\Side Project\Resp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9780" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sayfa2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sayfa3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,162 +28,158 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
-    <t xml:space="preserve">Patient ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPD0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H050</t>
+    <t>Patient ID</t>
+  </si>
+  <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>H002</t>
+  </si>
+  <si>
+    <t>COPD4</t>
+  </si>
+  <si>
+    <t>H003</t>
+  </si>
+  <si>
+    <t>H004</t>
+  </si>
+  <si>
+    <t>H005</t>
+  </si>
+  <si>
+    <t>H006</t>
+  </si>
+  <si>
+    <t>H007</t>
+  </si>
+  <si>
+    <t>COPD3</t>
+  </si>
+  <si>
+    <t>H008</t>
+  </si>
+  <si>
+    <t>H009</t>
+  </si>
+  <si>
+    <t>H010</t>
+  </si>
+  <si>
+    <t>H011</t>
+  </si>
+  <si>
+    <t>H012</t>
+  </si>
+  <si>
+    <t>H013</t>
+  </si>
+  <si>
+    <t>H014</t>
+  </si>
+  <si>
+    <t>H015</t>
+  </si>
+  <si>
+    <t>H016</t>
+  </si>
+  <si>
+    <t>COPD0</t>
+  </si>
+  <si>
+    <t>H017</t>
+  </si>
+  <si>
+    <t>COPD1</t>
+  </si>
+  <si>
+    <t>H018</t>
+  </si>
+  <si>
+    <t>COPD2</t>
+  </si>
+  <si>
+    <t>H021</t>
+  </si>
+  <si>
+    <t>H022</t>
+  </si>
+  <si>
+    <t>H023</t>
+  </si>
+  <si>
+    <t>H024</t>
+  </si>
+  <si>
+    <t>H025</t>
+  </si>
+  <si>
+    <t>H026</t>
+  </si>
+  <si>
+    <t>H028</t>
+  </si>
+  <si>
+    <t>H029</t>
+  </si>
+  <si>
+    <t>H030</t>
+  </si>
+  <si>
+    <t>H031</t>
+  </si>
+  <si>
+    <t>H032</t>
+  </si>
+  <si>
+    <t>H033</t>
+  </si>
+  <si>
+    <t>H034</t>
+  </si>
+  <si>
+    <t>H035</t>
+  </si>
+  <si>
+    <t>H036</t>
+  </si>
+  <si>
+    <t>H037</t>
+  </si>
+  <si>
+    <t>H038</t>
+  </si>
+  <si>
+    <t>H039</t>
+  </si>
+  <si>
+    <t>H040</t>
+  </si>
+  <si>
+    <t>H041</t>
+  </si>
+  <si>
+    <t>H042</t>
+  </si>
+  <si>
+    <t>H043</t>
+  </si>
+  <si>
+    <t>H044</t>
+  </si>
+  <si>
+    <t>H045</t>
+  </si>
+  <si>
+    <t>H050</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D\-MMM"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -188,22 +188,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -220,100 +205,334 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="4" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="1020" width="8.6640625" customWidth="1"/>
+    <col min="1021" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -322,7 +541,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -331,7 +550,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -340,7 +559,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -349,7 +568,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -358,7 +577,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -367,7 +586,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -376,7 +595,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -385,7 +604,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -394,7 +613,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -403,7 +622,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -412,7 +631,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -421,7 +640,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -430,7 +649,7 @@
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -439,7 +658,7 @@
       </c>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -448,7 +667,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -457,7 +676,7 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -466,7 +685,7 @@
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -475,7 +694,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -484,7 +703,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -493,7 +712,7 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -502,7 +721,7 @@
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -511,7 +730,7 @@
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -520,7 +739,7 @@
       </c>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -529,7 +748,7 @@
       </c>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -538,7 +757,7 @@
       </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -547,7 +766,7 @@
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -556,7 +775,7 @@
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -565,7 +784,7 @@
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -574,7 +793,7 @@
       </c>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -583,7 +802,7 @@
       </c>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -592,7 +811,7 @@
       </c>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -601,7 +820,7 @@
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -610,7 +829,7 @@
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -619,7 +838,7 @@
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -628,7 +847,7 @@
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -637,7 +856,7 @@
       </c>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -646,7 +865,7 @@
       </c>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -655,7 +874,7 @@
       </c>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -664,7 +883,7 @@
       </c>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -673,7 +892,7 @@
       </c>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -682,7 +901,7 @@
       </c>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -691,7 +910,7 @@
       </c>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -700,110 +919,40 @@
       </c>
       <c r="C43" s="4"/>
     </row>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col min="1" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col min="1" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/COPD.xlsx
+++ b/COPD.xlsx
@@ -520,7 +520,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
